--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/147.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/147.xlsx
@@ -479,13 +479,13 @@
         <v>-0.8535674694735232</v>
       </c>
       <c r="E2" t="n">
-        <v>-11.29181279186247</v>
+        <v>-11.29012388479588</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6100200447682923</v>
+        <v>0.6048354928429688</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.237290435009088</v>
+        <v>-5.239620864914915</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.142582188910383</v>
       </c>
       <c r="E3" t="n">
-        <v>-11.48209632136411</v>
+        <v>-11.48175592149023</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6847247247831812</v>
+        <v>0.6787939115958794</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.122523308298517</v>
+        <v>-5.124094384639524</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.6045283798358715</v>
       </c>
       <c r="E4" t="n">
-        <v>-12.0277965961101</v>
+        <v>-12.02774422689873</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6986287504010944</v>
+        <v>0.6931954447217781</v>
       </c>
       <c r="G4" t="n">
-        <v>-4.815482622054358</v>
+        <v>-4.817498836691983</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>1.315981067614688</v>
       </c>
       <c r="E5" t="n">
-        <v>-12.71763003284064</v>
+        <v>-12.71721107914971</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7112235457348348</v>
+        <v>0.7055283939986841</v>
       </c>
       <c r="G5" t="n">
-        <v>-4.898225976014066</v>
+        <v>-4.900883713490936</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>2.020565720414105</v>
       </c>
       <c r="E6" t="n">
-        <v>-13.32119828614706</v>
+        <v>-13.3208055170618</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7428676417032868</v>
+        <v>0.737696182080805</v>
       </c>
       <c r="G6" t="n">
-        <v>-4.190770299658556</v>
+        <v>-4.194828913539491</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>2.705080492693294</v>
       </c>
       <c r="E7" t="n">
-        <v>-13.60252568961007</v>
+        <v>-13.60285299718111</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8566004764893611</v>
+        <v>0.8506303863935341</v>
       </c>
       <c r="G7" t="n">
-        <v>-4.204504125339527</v>
+        <v>-4.208824585277297</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>3.38456841063566</v>
       </c>
       <c r="E8" t="n">
-        <v>-14.17794549180677</v>
+        <v>-14.17895359912558</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9352459396596096</v>
+        <v>0.9303232337911206</v>
       </c>
       <c r="G8" t="n">
-        <v>-3.787435726013501</v>
+        <v>-3.791991847402422</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>4.057458799600298</v>
       </c>
       <c r="E9" t="n">
-        <v>-14.9723209667285</v>
+        <v>-14.97283156653933</v>
       </c>
       <c r="F9" t="n">
-        <v>1.160197887086147</v>
+        <v>1.154476550744313</v>
       </c>
       <c r="G9" t="n">
-        <v>-3.41825897048251</v>
+        <v>-3.423351876287941</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>4.719871783771118</v>
       </c>
       <c r="E10" t="n">
-        <v>-15.56764106924462</v>
+        <v>-15.56878009959186</v>
       </c>
       <c r="F10" t="n">
-        <v>1.205549624129886</v>
+        <v>1.199500980217008</v>
       </c>
       <c r="G10" t="n">
-        <v>-2.720007183024733</v>
+        <v>-2.725086996527323</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>5.366209741536955</v>
       </c>
       <c r="E11" t="n">
-        <v>-16.17436456753589</v>
+        <v>-16.17469187510694</v>
       </c>
       <c r="F11" t="n">
-        <v>1.152722182163521</v>
+        <v>1.146581892130752</v>
       </c>
       <c r="G11" t="n">
-        <v>-2.274567763440687</v>
+        <v>-2.280249822873996</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>5.982139327158101</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.64617188504318</v>
+        <v>-16.64741565381314</v>
       </c>
       <c r="F12" t="n">
-        <v>1.182323878888664</v>
+        <v>1.176314511884312</v>
       </c>
       <c r="G12" t="n">
-        <v>-1.852380273703547</v>
+        <v>-1.858258717679482</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>6.54307038387223</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.44395135870375</v>
+        <v>-17.4453784197135</v>
       </c>
       <c r="F13" t="n">
-        <v>1.403937289090561</v>
+        <v>1.397234030035597</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.06121241297804</v>
+        <v>-1.066514795628939</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>7.028636109390254</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.25611927318739</v>
+        <v>-18.25779508795113</v>
       </c>
       <c r="F14" t="n">
-        <v>1.608334321055588</v>
+        <v>1.601578692789258</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.861450056218984</v>
+        <v>-0.8658752545794873</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>7.413594438514344</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.09769249985354</v>
+        <v>-19.09928976080023</v>
       </c>
       <c r="F15" t="n">
-        <v>1.657639933557529</v>
+        <v>1.651172335953716</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.4295349854704409</v>
+        <v>-0.4336197839570595</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>7.677656272674222</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.09180414692864</v>
+        <v>-20.09294317727587</v>
       </c>
       <c r="F16" t="n">
-        <v>1.980915075325429</v>
+        <v>1.974630769961401</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1374926506047151</v>
+        <v>0.1333816675124131</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>7.81078406633948</v>
       </c>
       <c r="E17" t="n">
-        <v>-20.80502043653451</v>
+        <v>-20.80649986675563</v>
       </c>
       <c r="F17" t="n">
-        <v>2.043548652120247</v>
+        <v>2.03765711584147</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2398875511298547</v>
+        <v>0.2362609832426965</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>7.804156632451592</v>
       </c>
       <c r="E18" t="n">
-        <v>-21.71524969930267</v>
+        <v>-21.71686005255221</v>
       </c>
       <c r="F18" t="n">
-        <v>2.162138731260601</v>
+        <v>2.156587594855709</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7990336208942916</v>
+        <v>0.795236853070191</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>7.658246611727392</v>
       </c>
       <c r="E19" t="n">
-        <v>-22.7221394339513</v>
+        <v>-22.72339629502411</v>
       </c>
       <c r="F19" t="n">
-        <v>2.262190109577072</v>
+        <v>2.256298573298295</v>
       </c>
       <c r="G19" t="n">
-        <v>1.018447524218779</v>
+        <v>1.01534464844529</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>7.379885786401012</v>
       </c>
       <c r="E20" t="n">
-        <v>-23.08221703900729</v>
+        <v>-23.08340843856589</v>
       </c>
       <c r="F20" t="n">
-        <v>2.563313074936771</v>
+        <v>2.557395354052311</v>
       </c>
       <c r="G20" t="n">
-        <v>1.618493948060768</v>
+        <v>1.615116133927603</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>6.975648104744571</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.03569017806168</v>
+        <v>-24.0366066392606</v>
       </c>
       <c r="F21" t="n">
-        <v>2.687768505750219</v>
+        <v>2.682610138430579</v>
       </c>
       <c r="G21" t="n">
-        <v>1.726505446505008</v>
+        <v>1.723677509091195</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>6.4606788122931</v>
       </c>
       <c r="E22" t="n">
-        <v>-24.37975589674224</v>
+        <v>-24.38067235794116</v>
       </c>
       <c r="F22" t="n">
-        <v>2.771794905388417</v>
+        <v>2.766060476743741</v>
       </c>
       <c r="G22" t="n">
-        <v>1.995997408199097</v>
+        <v>1.992959993939817</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>5.851212634981303</v>
       </c>
       <c r="E23" t="n">
-        <v>-24.91554529823704</v>
+        <v>-24.91650103634448</v>
       </c>
       <c r="F23" t="n">
-        <v>2.709056590170866</v>
+        <v>2.703819669034175</v>
       </c>
       <c r="G23" t="n">
-        <v>2.539380345342096</v>
+        <v>2.536002531208931</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>5.160017668251384</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.44961960805957</v>
+        <v>-25.44999928484198</v>
       </c>
       <c r="F24" t="n">
-        <v>2.593556294501159</v>
+        <v>2.588528850209936</v>
       </c>
       <c r="G24" t="n">
-        <v>2.332495775837141</v>
+        <v>2.329720207634695</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>4.407182949827626</v>
       </c>
       <c r="E25" t="n">
-        <v>-25.59330763174751</v>
+        <v>-25.59381823155834</v>
       </c>
       <c r="F25" t="n">
-        <v>2.718902001907844</v>
+        <v>2.713848373010938</v>
       </c>
       <c r="G25" t="n">
-        <v>2.240797286733692</v>
+        <v>2.238571595250598</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>3.610109264204246</v>
       </c>
       <c r="E26" t="n">
-        <v>-25.67106281832452</v>
+        <v>-25.6718090795865</v>
       </c>
       <c r="F26" t="n">
-        <v>2.883786463896542</v>
+        <v>2.878628096576902</v>
       </c>
       <c r="G26" t="n">
-        <v>2.241661378721245</v>
+        <v>2.240037933168871</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.784332189034065</v>
       </c>
       <c r="E27" t="n">
-        <v>-25.42871120042133</v>
+        <v>-25.42930035404921</v>
       </c>
       <c r="F27" t="n">
-        <v>2.583344298284612</v>
+        <v>2.57847396162749</v>
       </c>
       <c r="G27" t="n">
-        <v>1.956039699926149</v>
+        <v>1.954966131093128</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.959212847395435</v>
       </c>
       <c r="E28" t="n">
-        <v>-25.52208550428852</v>
+        <v>-25.52276630403629</v>
       </c>
       <c r="F28" t="n">
-        <v>2.84956318426827</v>
+        <v>2.844745216822515</v>
       </c>
       <c r="G28" t="n">
-        <v>1.910399932219892</v>
+        <v>1.908907409695936</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.159954149109735</v>
       </c>
       <c r="E29" t="n">
-        <v>-25.73905114698161</v>
+        <v>-25.73856673177646</v>
       </c>
       <c r="F29" t="n">
-        <v>2.679363247325831</v>
+        <v>2.67540937186763</v>
       </c>
       <c r="G29" t="n">
-        <v>1.811945814850112</v>
+        <v>1.810243815480688</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.4150386356822716</v>
       </c>
       <c r="E30" t="n">
-        <v>-25.38931646117058</v>
+        <v>-25.39036384539792</v>
       </c>
       <c r="F30" t="n">
-        <v>2.651790857541156</v>
+        <v>2.647156182335185</v>
       </c>
       <c r="G30" t="n">
-        <v>1.945487303835718</v>
+        <v>1.942606997210538</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-0.2370857589660913</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.62421537540295</v>
+        <v>-24.62536749805302</v>
       </c>
       <c r="F31" t="n">
-        <v>2.563339259542455</v>
+        <v>2.558992614999002</v>
       </c>
       <c r="G31" t="n">
-        <v>1.417343807200489</v>
+        <v>1.414411131363942</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-0.7683119530026942</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.7500847749233</v>
+        <v>-24.75050372861424</v>
       </c>
       <c r="F32" t="n">
-        <v>2.544433974239003</v>
+        <v>2.539904037455765</v>
       </c>
       <c r="G32" t="n">
-        <v>1.523888967726455</v>
+        <v>1.520013646085304</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-1.148438412348956</v>
       </c>
       <c r="E33" t="n">
-        <v>-24.17962695550361</v>
+        <v>-24.18042558597696</v>
       </c>
       <c r="F33" t="n">
-        <v>2.598060046678712</v>
+        <v>2.593451556078425</v>
       </c>
       <c r="G33" t="n">
-        <v>0.7638153262500484</v>
+        <v>0.7603720506026745</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-1.349048366324473</v>
       </c>
       <c r="E34" t="n">
-        <v>-23.53358727177864</v>
+        <v>-23.53458228679461</v>
       </c>
       <c r="F34" t="n">
-        <v>2.574467716957922</v>
+        <v>2.56967593411785</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6963114127981088</v>
+        <v>0.692671752608109</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-1.360783958802038</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.89764175354464</v>
+        <v>-22.8996055989709</v>
       </c>
       <c r="F35" t="n">
-        <v>2.448860163494402</v>
+        <v>2.444199303682748</v>
       </c>
       <c r="G35" t="n">
-        <v>0.7489948394332145</v>
+        <v>0.7453028100318478</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-1.173527169339311</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.09406238972518</v>
+        <v>-22.0957643890946</v>
       </c>
       <c r="F36" t="n">
-        <v>2.303169017471674</v>
+        <v>2.298874742139588</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7666039867553361</v>
+        <v>0.762021680760732</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-0.7904774422983629</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.14891595527813</v>
+        <v>-21.15086670840155</v>
       </c>
       <c r="F37" t="n">
-        <v>2.342812510476421</v>
+        <v>2.338806265806853</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7047821327367056</v>
+        <v>0.700605688130195</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-0.23501706812112</v>
       </c>
       <c r="E38" t="n">
-        <v>-21.01973420313882</v>
+        <v>-21.02099106421162</v>
       </c>
       <c r="F38" t="n">
-        <v>2.173502850127219</v>
+        <v>2.169051467161033</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4122869949497036</v>
+        <v>0.4079141658005671</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.4739582098649666</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.16652191924637</v>
+        <v>-20.16819773401011</v>
       </c>
       <c r="F39" t="n">
-        <v>2.411756577240951</v>
+        <v>2.407750332571382</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2495234860213651</v>
+        <v>0.2448495339068688</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.303790813379544</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.64965089535787</v>
+        <v>-19.65102558715625</v>
       </c>
       <c r="F40" t="n">
-        <v>2.250930729133187</v>
+        <v>2.246374607744267</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.0721805794055279</v>
+        <v>-0.07630465480067161</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>2.21322693504241</v>
       </c>
       <c r="E41" t="n">
-        <v>-18.69952938583097</v>
+        <v>-18.70180744652543</v>
       </c>
       <c r="F41" t="n">
-        <v>2.46894375605361</v>
+        <v>2.464780403749941</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.1376813705226834</v>
+        <v>-0.1419494612490861</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>3.170314030779735</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.42950063972037</v>
+        <v>-18.43075750079317</v>
       </c>
       <c r="F42" t="n">
-        <v>2.479731813595192</v>
+        <v>2.475777938136991</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.384222525335227</v>
+        <v>-0.3884120622445794</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>4.136308608757367</v>
       </c>
       <c r="E43" t="n">
-        <v>-17.50942596521523</v>
+        <v>-17.51188731814947</v>
       </c>
       <c r="F43" t="n">
-        <v>2.830291314485249</v>
+        <v>2.825918485336113</v>
       </c>
       <c r="G43" t="n">
-        <v>-0.3894463541690757</v>
+        <v>-0.3930467374505504</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>5.075014990806944</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.06125025433726</v>
+        <v>-17.06316173055215</v>
       </c>
       <c r="F44" t="n">
-        <v>2.764463215797051</v>
+        <v>2.760456971127482</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.7158243717104649</v>
+        <v>-0.7197651548658244</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>5.960117930042844</v>
       </c>
       <c r="E45" t="n">
-        <v>-16.33564864624312</v>
+        <v>-16.33740301482391</v>
       </c>
       <c r="F45" t="n">
-        <v>2.712774804177916</v>
+        <v>2.709292251622017</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.7611368318456788</v>
+        <v>-0.7652478149379808</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>6.762373626936207</v>
       </c>
       <c r="E46" t="n">
-        <v>-15.86028022236288</v>
+        <v>-15.86213932936641</v>
       </c>
       <c r="F46" t="n">
-        <v>2.876821358784744</v>
+        <v>2.872605637269708</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.9230231564836217</v>
+        <v>-0.9270817703645567</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>7.463476044621305</v>
       </c>
       <c r="E47" t="n">
-        <v>-15.12839430890472</v>
+        <v>-15.13093421565601</v>
       </c>
       <c r="F47" t="n">
-        <v>2.851998352596831</v>
+        <v>2.848018292532946</v>
       </c>
       <c r="G47" t="n">
-        <v>-1.256850694341953</v>
+        <v>-1.260883123617204</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>8.054511704704858</v>
       </c>
       <c r="E48" t="n">
-        <v>-14.47926484170909</v>
+        <v>-14.48188330227744</v>
       </c>
       <c r="F48" t="n">
-        <v>2.717776063863456</v>
+        <v>2.713796003799571</v>
       </c>
       <c r="G48" t="n">
-        <v>-1.294059019018138</v>
+        <v>-1.298248555927491</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>8.523414273762842</v>
       </c>
       <c r="E49" t="n">
-        <v>-13.87174271294448</v>
+        <v>-13.87491105023218</v>
       </c>
       <c r="F49" t="n">
-        <v>3.112037671639194</v>
+        <v>3.107167334982072</v>
       </c>
       <c r="G49" t="n">
-        <v>-1.484250902399893</v>
+        <v>-1.488427347006404</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>8.871386871051335</v>
       </c>
       <c r="E50" t="n">
-        <v>-13.27335901156339</v>
+        <v>-13.27699867175339</v>
       </c>
       <c r="F50" t="n">
-        <v>3.165375713416386</v>
+        <v>3.160845776633149</v>
       </c>
       <c r="G50" t="n">
-        <v>-1.444240824915578</v>
+        <v>-1.448849315515866</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>9.101917694611862</v>
       </c>
       <c r="E51" t="n">
-        <v>-12.41785557467364</v>
+        <v>-12.42128575801817</v>
       </c>
       <c r="F51" t="n">
-        <v>3.151654980038257</v>
+        <v>3.146391874295884</v>
       </c>
       <c r="G51" t="n">
-        <v>-1.456861804855002</v>
+        <v>-1.461666679997915</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>9.2128535868308</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.39027009258612</v>
+        <v>-12.39271835321753</v>
       </c>
       <c r="F52" t="n">
-        <v>3.112220963878979</v>
+        <v>3.107141150376389</v>
       </c>
       <c r="G52" t="n">
-        <v>-1.55416379957471</v>
+        <v>-1.559204336168775</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>9.216716968054815</v>
       </c>
       <c r="E53" t="n">
-        <v>-11.59088026567601</v>
+        <v>-11.5941402490836</v>
       </c>
       <c r="F53" t="n">
-        <v>3.386399969990406</v>
+        <v>3.381058310430982</v>
       </c>
       <c r="G53" t="n">
-        <v>-1.699593099540603</v>
+        <v>-1.704384882380675</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>9.122616974759312</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.35270509237933</v>
+        <v>-11.35595198348408</v>
       </c>
       <c r="F54" t="n">
-        <v>3.045057450300924</v>
+        <v>3.039846713769917</v>
       </c>
       <c r="G54" t="n">
-        <v>-1.767542151289162</v>
+        <v>-1.77268742630596</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>8.934655388406627</v>
       </c>
       <c r="E55" t="n">
-        <v>-10.77461446040292</v>
+        <v>-10.77759950545083</v>
       </c>
       <c r="F55" t="n">
-        <v>2.928693062643663</v>
+        <v>2.922853895576253</v>
       </c>
       <c r="G55" t="n">
-        <v>-2.157862975909541</v>
+        <v>-2.163270096983174</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>8.671700982196569</v>
       </c>
       <c r="E56" t="n">
-        <v>-10.22056129644391</v>
+        <v>-10.22401766439413</v>
       </c>
       <c r="F56" t="n">
-        <v>3.147701104580056</v>
+        <v>3.141626276061495</v>
       </c>
       <c r="G56" t="n">
-        <v>-2.432094351232335</v>
+        <v>-2.437030149403666</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>8.343547796914327</v>
       </c>
       <c r="E57" t="n">
-        <v>-9.621365872286637</v>
+        <v>-9.624102163580558</v>
       </c>
       <c r="F57" t="n">
-        <v>3.168413127675667</v>
+        <v>3.161866976254804</v>
       </c>
       <c r="G57" t="n">
-        <v>-2.917543848300696</v>
+        <v>-2.921615554484473</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>7.958559697968166</v>
       </c>
       <c r="E58" t="n">
-        <v>-9.488086229357865</v>
+        <v>-9.490482120777902</v>
       </c>
       <c r="F58" t="n">
-        <v>3.129738465081208</v>
+        <v>3.123009021420561</v>
       </c>
       <c r="G58" t="n">
-        <v>-2.740169329400991</v>
+        <v>-2.745484804354732</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>7.537666633969919</v>
       </c>
       <c r="E59" t="n">
-        <v>-8.889349035800048</v>
+        <v>-8.891614004191668</v>
       </c>
       <c r="F59" t="n">
-        <v>3.231282365921635</v>
+        <v>3.224893322134873</v>
       </c>
       <c r="G59" t="n">
-        <v>-3.109529377171767</v>
+        <v>-3.114020037046479</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>7.088819363686301</v>
       </c>
       <c r="E60" t="n">
-        <v>-8.77443789375822</v>
+        <v>-8.776886154389622</v>
       </c>
       <c r="F60" t="n">
-        <v>3.029870379004521</v>
+        <v>3.023533704429126</v>
       </c>
       <c r="G60" t="n">
-        <v>-2.82375059074257</v>
+        <v>-2.829066065696311</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>6.623915902063075</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.336500363702482</v>
+        <v>-8.33837256300885</v>
       </c>
       <c r="F61" t="n">
-        <v>3.092503955799339</v>
+        <v>3.086455311886461</v>
       </c>
       <c r="G61" t="n">
-        <v>-3.283604635755357</v>
+        <v>-3.28909031064604</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>6.160331781523682</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.963814871009908</v>
+        <v>-7.965281208928181</v>
       </c>
       <c r="F62" t="n">
-        <v>2.904000979484167</v>
+        <v>2.898397473867909</v>
       </c>
       <c r="G62" t="n">
-        <v>-3.401592468964992</v>
+        <v>-3.406475897924956</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>5.701163741972715</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.772654157217866</v>
+        <v>-7.774316879678765</v>
       </c>
       <c r="F63" t="n">
-        <v>3.189832135124731</v>
+        <v>3.183338352915234</v>
       </c>
       <c r="G63" t="n">
-        <v>-3.380880445869382</v>
+        <v>-3.385999536280496</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>5.258377013327548</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.506592378868309</v>
+        <v>-7.507757593821222</v>
       </c>
       <c r="F64" t="n">
-        <v>3.046628526641931</v>
+        <v>3.040422775094953</v>
       </c>
       <c r="G64" t="n">
-        <v>-3.70998166240185</v>
+        <v>-3.715022198995914</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>4.841890127677987</v>
       </c>
       <c r="E65" t="n">
-        <v>-7.221677684426666</v>
+        <v>-7.222882176288105</v>
       </c>
       <c r="F65" t="n">
-        <v>3.146679904958401</v>
+        <v>3.139898092086387</v>
       </c>
       <c r="G65" t="n">
-        <v>-3.745265418560301</v>
+        <v>-3.75048924739415</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>4.44935356447596</v>
       </c>
       <c r="E66" t="n">
-        <v>-7.00583797977797</v>
+        <v>-7.006990102428042</v>
       </c>
       <c r="F66" t="n">
-        <v>2.994861561205746</v>
+        <v>2.9884463328133</v>
       </c>
       <c r="G66" t="n">
-        <v>-3.79865582954886</v>
+        <v>-3.803853473777026</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>4.091841821802475</v>
       </c>
       <c r="E67" t="n">
-        <v>-7.100848821500376</v>
+        <v>-7.101804559607822</v>
       </c>
       <c r="F67" t="n">
-        <v>2.994154576852293</v>
+        <v>2.987556056220063</v>
       </c>
       <c r="G67" t="n">
-        <v>-3.687410532302714</v>
+        <v>-3.692032115205843</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>3.773133365237672</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.792407258852152</v>
+        <v>-6.793271350839706</v>
       </c>
       <c r="F68" t="n">
-        <v>2.96121434290251</v>
+        <v>2.95453726845323</v>
       </c>
       <c r="G68" t="n">
-        <v>-3.661173557407895</v>
+        <v>-3.6659129710366</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>3.48910463513564</v>
       </c>
       <c r="E69" t="n">
-        <v>-6.965736256173763</v>
+        <v>-6.966102840653331</v>
       </c>
       <c r="F69" t="n">
-        <v>2.71939950941583</v>
+        <v>2.713455603925686</v>
       </c>
       <c r="G69" t="n">
-        <v>-3.702872541958793</v>
+        <v>-3.707729786313073</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>3.249481007116614</v>
       </c>
       <c r="E70" t="n">
-        <v>-6.718540486219133</v>
+        <v>-6.718736870761759</v>
       </c>
       <c r="F70" t="n">
-        <v>2.784075485453956</v>
+        <v>2.777686441667194</v>
       </c>
       <c r="G70" t="n">
-        <v>-3.510022921100167</v>
+        <v>-3.514500488672038</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>3.053015472724954</v>
       </c>
       <c r="E71" t="n">
-        <v>-6.638952377244281</v>
+        <v>-6.638481054341979</v>
       </c>
       <c r="F71" t="n">
-        <v>2.690648812375399</v>
+        <v>2.68488819912504</v>
       </c>
       <c r="G71" t="n">
-        <v>-3.503110185199736</v>
+        <v>-3.507404460531822</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>2.895596660226738</v>
       </c>
       <c r="E72" t="n">
-        <v>-6.811037605795928</v>
+        <v>-6.81006877538564</v>
       </c>
       <c r="F72" t="n">
-        <v>2.836392327609494</v>
+        <v>2.830291314485249</v>
       </c>
       <c r="G72" t="n">
-        <v>-3.376887293502655</v>
+        <v>-3.380513861389813</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>2.783205220983014</v>
       </c>
       <c r="E73" t="n">
-        <v>-6.958090351314195</v>
+        <v>-6.956898951755599</v>
       </c>
       <c r="F73" t="n">
-        <v>2.592927863964756</v>
+        <v>2.587350542954181</v>
       </c>
       <c r="G73" t="n">
-        <v>-3.294798554685033</v>
+        <v>-3.298097815001148</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>2.710628835720691</v>
       </c>
       <c r="E74" t="n">
-        <v>-7.230475711936306</v>
+        <v>-7.229245035469184</v>
       </c>
       <c r="F74" t="n">
-        <v>2.726521722161729</v>
+        <v>2.720708739700002</v>
       </c>
       <c r="G74" t="n">
-        <v>-3.263141366413739</v>
+        <v>-3.266126411461653</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>2.674973391260399</v>
       </c>
       <c r="E75" t="n">
-        <v>-7.401029141055472</v>
+        <v>-7.399471157017306</v>
       </c>
       <c r="F75" t="n">
-        <v>2.28099065645779</v>
+        <v>2.275282412418798</v>
       </c>
       <c r="G75" t="n">
-        <v>-2.998598295193822</v>
+        <v>-3.001635709453103</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>2.676774872036044</v>
       </c>
       <c r="E76" t="n">
-        <v>-7.836583871994014</v>
+        <v>-7.835536487766676</v>
       </c>
       <c r="F76" t="n">
-        <v>2.527466349756125</v>
+        <v>2.521653367294399</v>
       </c>
       <c r="G76" t="n">
-        <v>-2.924757707166487</v>
+        <v>-2.927559459974617</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>2.706978168720044</v>
       </c>
       <c r="E77" t="n">
-        <v>-8.158811629534576</v>
+        <v>-8.15769878379303</v>
       </c>
       <c r="F77" t="n">
-        <v>2.375464713763686</v>
+        <v>2.370070684992895</v>
       </c>
       <c r="G77" t="n">
-        <v>-2.797854015721637</v>
+        <v>-2.800315368655881</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>2.760924413783326</v>
       </c>
       <c r="E78" t="n">
-        <v>-8.51222525244413</v>
+        <v>-8.511282606639526</v>
       </c>
       <c r="F78" t="n">
-        <v>2.27143327538333</v>
+        <v>2.265934508189805</v>
       </c>
       <c r="G78" t="n">
-        <v>-2.632917184521571</v>
+        <v>-2.635090506793298</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>2.831772237991254</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.973244512409829</v>
+        <v>-8.972602989570586</v>
       </c>
       <c r="F79" t="n">
-        <v>2.384131818244908</v>
+        <v>2.378030805120664</v>
       </c>
       <c r="G79" t="n">
-        <v>-2.349206981941367</v>
+        <v>-2.351288658093202</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>2.905320692992575</v>
       </c>
       <c r="E80" t="n">
-        <v>-9.37183967242618</v>
+        <v>-9.371551641763663</v>
       </c>
       <c r="F80" t="n">
-        <v>2.095394171373482</v>
+        <v>2.089633558123122</v>
       </c>
       <c r="G80" t="n">
-        <v>-1.80029909299916</v>
+        <v>-1.802524784482254</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>2.972222814811323</v>
       </c>
       <c r="E81" t="n">
-        <v>-10.01210565059795</v>
+        <v>-10.01217111211216</v>
       </c>
       <c r="F81" t="n">
-        <v>2.2390429181529</v>
+        <v>2.233177566479807</v>
       </c>
       <c r="G81" t="n">
-        <v>-1.902078655290739</v>
+        <v>-1.904265069865307</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>3.019110930213371</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.6688679303503</v>
+        <v>-10.66901194568156</v>
       </c>
       <c r="F82" t="n">
-        <v>2.218357079662973</v>
+        <v>2.212360804961462</v>
       </c>
       <c r="G82" t="n">
-        <v>-1.67719216937841</v>
+        <v>-1.679483322375712</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>3.03040692266729</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.26924166176333</v>
+        <v>-11.26946423091164</v>
       </c>
       <c r="F83" t="n">
-        <v>1.899638059283993</v>
+        <v>1.894558245781404</v>
       </c>
       <c r="G83" t="n">
-        <v>-1.273857595733355</v>
+        <v>-1.2764760563017</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>2.994650827292106</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.15424205695549</v>
+        <v>-12.15523707197146</v>
       </c>
       <c r="F84" t="n">
-        <v>1.95847486825471</v>
+        <v>1.952818993427085</v>
       </c>
       <c r="G84" t="n">
-        <v>-1.127394003842966</v>
+        <v>-1.129541141509009</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>2.898635607654286</v>
       </c>
       <c r="E85" t="n">
-        <v>-12.78663956111938</v>
+        <v>-12.78790951449503</v>
       </c>
       <c r="F85" t="n">
-        <v>1.879711574358886</v>
+        <v>1.874134253348311</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.8255640541298128</v>
+        <v>-0.8275409918589134</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>2.730682894479795</v>
       </c>
       <c r="E86" t="n">
-        <v>-13.57961415963705</v>
+        <v>-13.58178748190877</v>
       </c>
       <c r="F86" t="n">
-        <v>1.845409740913564</v>
+        <v>1.839492020029104</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.6191115306186344</v>
+        <v>-0.6207480684738501</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>2.482238136016924</v>
       </c>
       <c r="E87" t="n">
-        <v>-14.40537188447039</v>
+        <v>-14.40755829904496</v>
       </c>
       <c r="F87" t="n">
-        <v>1.862560657636225</v>
+        <v>1.856119244638096</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.2278218755879674</v>
+        <v>-0.2293798596261328</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>2.14737890131891</v>
       </c>
       <c r="E88" t="n">
-        <v>-15.60003142647506</v>
+        <v>-15.60232257947236</v>
       </c>
       <c r="F88" t="n">
-        <v>1.884660464833059</v>
+        <v>1.878428528680397</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0497611292623087</v>
+        <v>0.04821623752698503</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>1.723235842846274</v>
       </c>
       <c r="E89" t="n">
-        <v>-16.53729629461138</v>
+        <v>-16.54088358559002</v>
       </c>
       <c r="F89" t="n">
-        <v>1.625092468692998</v>
+        <v>1.619253301625588</v>
       </c>
       <c r="G89" t="n">
-        <v>0.2342447686050707</v>
+        <v>0.2329093537152147</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>1.209721893123386</v>
       </c>
       <c r="E90" t="n">
-        <v>-17.93695511451179</v>
+        <v>-17.94096135918136</v>
       </c>
       <c r="F90" t="n">
-        <v>1.586155960041705</v>
+        <v>1.58005494691746</v>
       </c>
       <c r="G90" t="n">
-        <v>0.6945177673087924</v>
+        <v>0.6934572907786126</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.6137495394322771</v>
       </c>
       <c r="E91" t="n">
-        <v>-19.08542501209084</v>
+        <v>-19.09060956401617</v>
       </c>
       <c r="F91" t="n">
-        <v>1.27703359764571</v>
+        <v>1.271377722818085</v>
       </c>
       <c r="G91" t="n">
-        <v>0.6667359006786496</v>
+        <v>0.6655183165143691</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.05694292149454198</v>
       </c>
       <c r="E92" t="n">
-        <v>-20.36590459922302</v>
+        <v>-20.37190087392453</v>
       </c>
       <c r="F92" t="n">
-        <v>1.067334183029784</v>
+        <v>1.062031800378885</v>
       </c>
       <c r="G92" t="n">
-        <v>1.167018976866686</v>
+        <v>1.164727823869384</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.7912401048690306</v>
       </c>
       <c r="E93" t="n">
-        <v>-21.9602459623799</v>
+        <v>-21.96642552932119</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9289616342955811</v>
+        <v>0.9234366824963727</v>
       </c>
       <c r="G93" t="n">
-        <v>1.16446597781255</v>
+        <v>1.162397393963557</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-1.568851681803404</v>
       </c>
       <c r="E94" t="n">
-        <v>-23.59200512705842</v>
+        <v>-23.59912733980432</v>
       </c>
       <c r="F94" t="n">
-        <v>1.032731226619102</v>
+        <v>1.02725864403126</v>
       </c>
       <c r="G94" t="n">
-        <v>1.327059286803946</v>
+        <v>1.3244408262356</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-2.373929050290329</v>
       </c>
       <c r="E95" t="n">
-        <v>-25.26114281635008</v>
+        <v>-25.26957425938015</v>
       </c>
       <c r="F95" t="n">
-        <v>0.3115810014911466</v>
+        <v>0.3063702649601396</v>
       </c>
       <c r="G95" t="n">
-        <v>1.304619079733227</v>
+        <v>1.301280542508587</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-3.188690454677943</v>
       </c>
       <c r="E96" t="n">
-        <v>-27.0301093148099</v>
+        <v>-27.03852766553713</v>
       </c>
       <c r="F96" t="n">
-        <v>0.4791886624709237</v>
+        <v>0.4729567263182621</v>
       </c>
       <c r="G96" t="n">
-        <v>1.014231802703743</v>
+        <v>1.010932542387628</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-3.986214319020331</v>
       </c>
       <c r="E97" t="n">
-        <v>-28.94074762232003</v>
+        <v>-28.95027881878881</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.1491764124177189</v>
+        <v>-0.1541514874975748</v>
       </c>
       <c r="G97" t="n">
-        <v>1.189760306902764</v>
+        <v>1.18593735447298</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-4.754424354413658</v>
       </c>
       <c r="E98" t="n">
-        <v>-31.16749958194364</v>
+        <v>-31.17771157816019</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.4193098969510529</v>
+        <v>-0.4254240023781389</v>
       </c>
       <c r="G98" t="n">
-        <v>1.064597891735863</v>
+        <v>1.059858478107158</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-5.464321867691883</v>
       </c>
       <c r="E99" t="n">
-        <v>-33.3439378217465</v>
+        <v>-33.35523647909891</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.3918422455891116</v>
+        <v>-0.397890889501989</v>
       </c>
       <c r="G99" t="n">
-        <v>0.6865707394838647</v>
+        <v>0.681202895318757</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-6.108648265448649</v>
       </c>
       <c r="E100" t="n">
-        <v>-35.31377952270692</v>
+        <v>-35.32633504113214</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.4631822037736769</v>
+        <v>-0.469296309200763</v>
       </c>
       <c r="G100" t="n">
-        <v>0.4928963035462109</v>
+        <v>0.4873189825356357</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-6.651773774184336</v>
       </c>
       <c r="E101" t="n">
-        <v>-37.13012706515095</v>
+        <v>-37.14463333669958</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.8178788723617195</v>
+        <v>-0.8240191623944891</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.07367310192948466</v>
+        <v>-0.07898857688322546</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-7.112991001207197</v>
       </c>
       <c r="E102" t="n">
-        <v>-39.43297148889067</v>
+        <v>-39.4481978370956</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.7241117994092775</v>
+        <v>-0.7309197968869751</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.6113739796391743</v>
+        <v>-0.6164799777474474</v>
       </c>
     </row>
   </sheetData>
